--- a/biology/Zoologie/Callulops_kampeni/Callulops_kampeni.xlsx
+++ b/biology/Zoologie/Callulops_kampeni/Callulops_kampeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callulops kampeni est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callulops kampeni est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'est connue que d'une localité imprécise en Nouvelle-Guinée occidentale en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'est connue que d'une localité imprécise en Nouvelle-Guinée occidentale en Indonésie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pieter Nicolaas van Kampen[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pieter Nicolaas van Kampen.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1914 : An annotated list of the batrachians and reptiles collected by the British Ornithologists Union Expedition and the Wollaston Expedition in Dutch New Guinea. Transactions of the Zoological Society of London, vol. 20, no 5, p. 247-275 (texte intégral).</t>
         </is>
